--- a/biology/Botanique/Cleome/Cleome.xlsx
+++ b/biology/Botanique/Cleome/Cleome.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cleome est un genre de plantes à fleurs de la famille des Capparaceae selon la classification classique ou des Cleomaceae selon la classification phylogénétique.
-Dipterygium est un synonyme de Cleome[1].
+Dipterygium est un synonyme de Cleome.
 </t>
         </is>
       </c>
@@ -514,7 +526,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Selon ITIS
+          <t>Selon ITIS</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Cleome aculeata L.
 Cleome diffusa Banks ex DC.
 Cleome gynandra L.
@@ -533,8 +551,7 @@
 Cleome spinosa Jacq.
 Cleome stenophylla Klotzsch ex Urban
 Cleome viscosa L.
-Espèces
-Liste complète</t>
+</t>
         </is>
       </c>
     </row>
@@ -559,10 +576,48 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Liste d'espèces</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Espèces</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Liste complète</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Cleome</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cleome</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Gynandropsis DC.
